--- a/lib/seeds/AmenitiesMaster.xlsx
+++ b/lib/seeds/AmenitiesMaster.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="21012" windowHeight="8208"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>cost_pp</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Above Average</t>
+  </si>
+  <si>
+    <t>Luxury</t>
+  </si>
+  <si>
+    <t>Chef Made</t>
+  </si>
+  <si>
+    <t>Earplugs</t>
+  </si>
+  <si>
+    <t>Magazine</t>
+  </si>
+  <si>
+    <t>Contentful</t>
+  </si>
+  <si>
+    <t>Personal_Cleaning</t>
+  </si>
+  <si>
+    <t>Sleeping Wear</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +98,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +147,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -132,6 +181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -166,9 +216,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,36 +392,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
